--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -1,17 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <fileSharing readOnlyRecommended="0" userName="akshat"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\029421793\DSA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02A75AC-AD18-491E-B382-D285A05C8B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcOnSave="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="smNativeData">
       <pm:revision xmlns:pm="smNativeData" day="1658301525" val="982" rev="124" rev64="64" revOS="1" revMin="124" revMax="0"/>
       <pm:docPrefs xmlns:pm="smNativeData" id="1658301525" fixedDigits="0" showNotice="1" showProtection="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
@@ -23,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="254">
   <si>
     <t xml:space="preserve">Questions and Topic in Each Video </t>
   </si>
@@ -33,169 +48,73 @@
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FFD77009"/>
         <rFont val="Arial"/>
-        <charset val="0"/>
         <family val="1"/>
-        <sz val="12"/>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFD77009"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1658301525" fgClr="D77009">
-              <pm:latin face="Arial" sz="240" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>Orange</t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="0"/>
         <family val="1"/>
-        <sz val="12"/>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1658301525" fgClr="000000">
-              <pm:latin face="Arial" sz="240" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t xml:space="preserve"> is leetcode , </t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FF007F00"/>
         <rFont val="Arial"/>
-        <charset val="0"/>
         <family val="1"/>
-        <sz val="12"/>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF007F00"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1658301525" fgClr="007F00">
-              <pm:latin face="Arial" sz="240" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>green</t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="0"/>
         <family val="1"/>
-        <sz val="12"/>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1658301525" fgClr="000000">
-              <pm:latin face="Arial" sz="240" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t xml:space="preserve"> is gfg,  </t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FF00FFFF"/>
         <rFont val="Arial"/>
-        <charset val="0"/>
         <family val="1"/>
-        <sz val="12"/>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF00FFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1658301525" fgClr="00FFFF">
-              <pm:latin face="Arial" sz="240" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>cyan</t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="0"/>
         <family val="1"/>
-        <sz val="12"/>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1658301525" fgClr="000000">
-              <pm:latin face="Arial" sz="240" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t xml:space="preserve"> is lintcode , </t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
-        <charset val="0"/>
         <family val="1"/>
-        <sz val="12"/>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1658301525" fgClr="FF0000">
-              <pm:latin face="Arial" sz="240" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t>red</t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="0"/>
         <family val="1"/>
-        <sz val="12"/>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1658301525" fgClr="000000">
-              <pm:latin face="Arial" sz="240" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t xml:space="preserve"> is codingninja </t>
     </r>
@@ -949,246 +868,84 @@
   </si>
   <si>
     <t>Search in Rotated Sorted Array 2</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>Valid Parentheses</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
-    <numFmt numFmtId="5" formatCode="#,##0\ &quot;₹&quot;;\-#,##0\ &quot;₹&quot;"/>
-    <numFmt numFmtId="6" formatCode="#,##0\ &quot;₹&quot;;[Red]\-#,##0\ &quot;₹&quot;"/>
-    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;₹&quot;;\-#,##0.00\ &quot;₹&quot;"/>
-    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;₹&quot;;[Red]\-#,##0.00\ &quot;₹&quot;"/>
-    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₹&quot;_-;\-* #,##0\ &quot;₹&quot;_-;_-* &quot;-&quot;\ &quot;₹&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0\ _₹_-;\-* #,##0\ _₹_-;_-* &quot;-&quot;\ _₹_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₹&quot;_-;\-* #,##0.00\ &quot;₹&quot;_-;_-* &quot;-&quot;??\ &quot;₹&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₹_-;\-* #,##0.00\ _₹_-;_-* &quot;-&quot;??\ _₹_-;_-@_-"/>
-  </numFmts>
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1658301525" ulstyle="none" kern="1">
-            <pm:latin face="Arial" sz="200" lang="default"/>
-            <pm:cs face="Times New Roman" sz="200" lang="default"/>
-            <pm:ea face="SimSun" sz="200" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
     </font>
     <font>
-      <name val="Basic Sans"/>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1658301525" ulstyle="none" kern="1">
-            <pm:latin face="Basic Sans" sz="200" lang="default"/>
-            <pm:cs face="Basic Roman" sz="200" lang="default"/>
-            <pm:ea face="Basic Roman" sz="200" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="1"/>
-      <b/>
-      <color rgb="FF000000"/>
-      <sz val="15"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1658301525" ulstyle="none" kern="1">
-            <pm:latin face="Arial" sz="300" lang="default" weight="bold"/>
-            <pm:cs face="Times New Roman" sz="200" lang="default"/>
-            <pm:ea face="SimSun" sz="200" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
     </font>
     <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="1"/>
-      <b/>
-      <color rgb="FF000000"/>
-      <sz val="12"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1658301525" ulstyle="none" kern="1">
-            <pm:latin face="Arial" sz="240" lang="default" weight="bold"/>
-            <pm:cs face="Times New Roman" sz="200" lang="default"/>
-            <pm:ea face="SimSun" sz="200" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="1"/>
-      <b/>
-      <color rgb="FF000000"/>
-      <sz val="14"/>
-      <u val="single"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1658301525" ulstyle="single" kern="1">
-            <pm:latin face="Arial" sz="280" lang="default" weight="bold"/>
-            <pm:cs face="Times New Roman" sz="200" lang="default"/>
-            <pm:ea face="SimSun" sz="200" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FFD77009"/>
       <name val="Arial"/>
       <family val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="12"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1658301525" ulstyle="none" kern="1">
-            <pm:latin face="Arial" sz="240" lang="default"/>
-            <pm:cs face="Times New Roman" sz="200" lang="default"/>
-            <pm:ea face="SimSun" sz="200" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF007F00"/>
       <name val="Arial"/>
       <family val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1658301525" ulstyle="none" kern="1">
-            <pm:latin face="Arial" sz="220" lang="default"/>
-            <pm:cs face="Times New Roman" sz="200" lang="default"/>
-            <pm:ea face="SimSun" sz="200" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF00FFFF"/>
       <name val="Arial"/>
       <family val="1"/>
-      <color rgb="FFD77009"/>
-      <sz val="12"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1658301525" fgClr="D77009" ulstyle="none" kern="1">
-            <pm:latin face="Arial" sz="240" lang="default"/>
-            <pm:cs face="Times New Roman" sz="200" lang="default"/>
-            <pm:ea face="SimSun" sz="200" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="1"/>
-      <color rgb="FF007F00"/>
-      <sz val="12"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1658301525" fgClr="007F00" ulstyle="none" kern="1">
-            <pm:latin face="Arial" sz="240" lang="default"/>
-            <pm:cs face="Times New Roman" sz="200" lang="default"/>
-            <pm:ea face="SimSun" sz="200" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="1"/>
-      <color rgb="FF00FFFF"/>
-      <sz val="12"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1658301525" fgClr="00FFFF" ulstyle="none" kern="1">
-            <pm:latin face="Arial" sz="240" lang="default"/>
-            <pm:cs face="Times New Roman" sz="200" lang="default"/>
-            <pm:ea face="SimSun" sz="200" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="1"/>
-      <color rgb="FFFF0000"/>
-      <sz val="12"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1658301525" fgClr="FF0000" ulstyle="none" kern="1">
-            <pm:latin face="Arial" sz="240" lang="default"/>
-            <pm:cs face="Times New Roman" sz="200" lang="default"/>
-            <pm:ea face="SimSun" sz="200" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1658301525" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="none"/>
@@ -1197,154 +954,25 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00FFFF"/>
         <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1658301525" type="1" fgLvl="100" fgClr="0000FFFF" bgLvl="0" bgClr="00000000"/>
-          </ext>
-        </extLst>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
   </fills>
-  <borders count="36">
+  <borders count="26">
     <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1658301525"/>
-        </ext>
-      </extLst>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1658301525"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF0000FF"/>
       </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1658301525">
-            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="0000FF"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1658301525">
-            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1359,43 +987,10 @@
       <bottom style="thin">
         <color rgb="FF007F00"/>
       </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1658301525">
-            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="007F00"/>
-            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="007F00"/>
-            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="007F00"/>
-            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="007F00"/>
-          </pm:border>
-        </ext>
-      </extLst>
+      <diagonal/>
     </border>
     <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF007F00"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1658301525">
-            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="007F00"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
+      <left/>
       <right style="thin">
         <color rgb="FF007F00"/>
       </right>
@@ -1405,38 +1000,20 @@
       <bottom style="thin">
         <color rgb="FF007F00"/>
       </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1658301525">
-            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="007F00"/>
-            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="007F00"/>
-            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="007F00"/>
-          </pm:border>
-        </ext>
-      </extLst>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF007F00"/>
       </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top style="thin">
         <color rgb="FF007F00"/>
       </top>
       <bottom style="thin">
         <color rgb="FF007F00"/>
       </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1658301525">
-            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="007F00"/>
-            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="007F00"/>
-            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="007F00"/>
-          </pm:border>
-        </ext>
-      </extLst>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1448,18 +1025,8 @@
       <top style="thin">
         <color rgb="FF007F00"/>
       </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1658301525">
-            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="007F00"/>
-            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="007F00"/>
-            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="007F00"/>
-          </pm:border>
-        </ext>
-      </extLst>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -1474,38 +1041,7 @@
       <bottom style="double">
         <color rgb="FF000000"/>
       </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1658301525">
-            <pm:line position="top" type="2" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="left" type="2" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="right" type="2" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF007F00"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF007F00"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1658301525">
-            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="007F00"/>
-            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="007F00"/>
-          </pm:border>
-        </ext>
-      </extLst>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1520,104 +1056,25 @@
       <bottom style="thin">
         <color rgb="FF00FFFF"/>
       </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1658301525">
-            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="00FFFF"/>
-            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="00FFFF"/>
-            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="00FFFF"/>
-            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="00FFFF"/>
-          </pm:border>
-        </ext>
-      </extLst>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF00FFFF"/>
       </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top style="thin">
         <color rgb="FF00FFFF"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF00FFFF"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1658301525">
-            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="00FFFF"/>
-            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="00FFFF"/>
-            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="00FFFF"/>
-          </pm:border>
-        </ext>
-      </extLst>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1658301525">
-            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="FF0000"/>
-            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="FF0000"/>
-            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="FF0000"/>
-            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="FF0000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF00FFFF"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF00FFFF"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1658301525">
-            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="00FFFF"/>
-            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="00FFFF"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1658301525"/>
-        </ext>
-      </extLst>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1632,61 +1089,31 @@
       <bottom style="thin">
         <color rgb="FFD77009"/>
       </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1658301525">
-            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="D77009"/>
-            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="D77009"/>
-            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="D77009"/>
-            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="D77009"/>
-          </pm:border>
-        </ext>
-      </extLst>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FFD77009"/>
       </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top style="thin">
         <color rgb="FFD77009"/>
       </top>
       <bottom style="thin">
         <color rgb="FFD77009"/>
       </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1658301525">
-            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="D77009"/>
-            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="D77009"/>
-            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="D77009"/>
-          </pm:border>
-        </ext>
-      </extLst>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FFD77009"/>
       </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top style="thin">
         <color rgb="FFD77009"/>
       </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1658301525">
-            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="D77009"/>
-            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="D77009"/>
-          </pm:border>
-        </ext>
-      </extLst>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1695,21 +1122,11 @@
       <right style="thin">
         <color rgb="FF007F00"/>
       </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color rgb="FF007F00"/>
       </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1658301525">
-            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="007F00"/>
-            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="007F00"/>
-            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="007F00"/>
-          </pm:border>
-        </ext>
-      </extLst>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1718,107 +1135,29 @@
       <right style="thin">
         <color rgb="FF007F00"/>
       </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1658301525">
-            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="007F00"/>
-            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="007F00"/>
-          </pm:border>
-        </ext>
-      </extLst>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF007F00"/>
       </top>
       <bottom style="thin">
         <color rgb="FF007F00"/>
       </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1658301525">
-            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="007F00"/>
-            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="007F00"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF007F00"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF007F00"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1658301525">
-            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="007F00"/>
-            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="007F00"/>
-          </pm:border>
-        </ext>
-      </extLst>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF007F00"/>
       </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1658301525">
-            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="007F00"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF007F00"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF007F00"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1658301525">
-            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="007F00"/>
-            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="007F00"/>
-          </pm:border>
-        </ext>
-      </extLst>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1830,18 +1169,8 @@
       <top style="thin">
         <color rgb="FFD77009"/>
       </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1658301525">
-            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="D77009"/>
-            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="D77009"/>
-            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="D77009"/>
-          </pm:border>
-        </ext>
-      </extLst>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1856,21 +1185,10 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1658301525">
-            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
+      <diagonal/>
     </border>
     <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
+      <left/>
       <right style="thin">
         <color rgb="FFD77009"/>
       </right>
@@ -1880,58 +1198,18 @@
       <bottom style="thin">
         <color rgb="FFD77009"/>
       </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1658301525">
-            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="D77009"/>
-            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="D77009"/>
-            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="D77009"/>
-          </pm:border>
-        </ext>
-      </extLst>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF007F00"/>
       </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top style="thin">
         <color rgb="FF007F00"/>
       </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1658301525">
-            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="007F00"/>
-            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="007F00"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF007F00"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1658301525">
-            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="007F00"/>
-          </pm:border>
-        </ext>
-      </extLst>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1946,37 +1224,16 @@
       <bottom style="thin">
         <color rgb="FF00007F"/>
       </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1658301525">
-            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="00007F"/>
-            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="00007F"/>
-            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="00007F"/>
-            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="00007F"/>
-          </pm:border>
-        </ext>
-      </extLst>
+      <diagonal/>
     </border>
     <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF007F00"/>
       </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1658301525">
-            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="007F00"/>
-          </pm:border>
-        </ext>
-      </extLst>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1988,18 +1245,19 @@
       <top style="thin">
         <color rgb="FFFF0000"/>
       </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1658301525">
-            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="FF0000"/>
-            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="FF0000"/>
-            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="FF0000"/>
-          </pm:border>
-        </ext>
-      </extLst>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFD77009"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD77009"/>
+      </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2008,116 +1266,68 @@
       <right style="thin">
         <color rgb="FFD77009"/>
       </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFD77009"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1658301525">
-            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="D77009"/>
-            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="D77009"/>
-            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="D77009"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFD77009"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFD77009"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1658301525">
-            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="D77009"/>
-            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="D77009"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD77009"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFD77009"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1658301525">
-            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="D77009"/>
-            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="D77009"/>
-          </pm:border>
-        </ext>
-      </extLst>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
     <ext uri="smNativeData">
       <pm:charStyles xmlns:pm="smNativeData" id="1658301525" count="1">
         <pm:charStyle name="Normal" fontId="0"/>
@@ -2135,10 +1345,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="D5D5D5"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="494949"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="EEECE1"/>
@@ -2385,45 +1595,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T87"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T91"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="B24" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="B79" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.090090" customWidth="1"/>
-    <col min="3" max="3" width="48.864865" customWidth="1"/>
-    <col min="4" max="4" width="53.459459" customWidth="1"/>
-    <col min="5" max="5" width="62.099099" customWidth="1"/>
-    <col min="6" max="6" width="38.846847" customWidth="1"/>
-    <col min="7" max="7" width="52.576577" customWidth="1"/>
-    <col min="8" max="8" width="46.558559" customWidth="1"/>
-    <col min="9" max="9" width="30.873874" customWidth="1"/>
-    <col min="10" max="10" width="38.450450" customWidth="1"/>
-    <col min="11" max="11" width="22.972973" customWidth="1"/>
-    <col min="12" max="12" width="26.081081" customWidth="1"/>
+    <col min="1" max="1" width="26.08984375" customWidth="1"/>
+    <col min="3" max="3" width="48.81640625" customWidth="1"/>
+    <col min="4" max="4" width="53.453125" customWidth="1"/>
+    <col min="5" max="5" width="62.08984375" customWidth="1"/>
+    <col min="6" max="6" width="38.81640625" customWidth="1"/>
+    <col min="7" max="7" width="52.54296875" customWidth="1"/>
+    <col min="8" max="8" width="46.54296875" customWidth="1"/>
+    <col min="9" max="9" width="30.90625" customWidth="1"/>
+    <col min="10" max="10" width="38.453125" customWidth="1"/>
+    <col min="11" max="11" width="23" customWidth="1"/>
+    <col min="12" max="12" width="26.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:8" ht="21.65" customHeight="1">
+    <row r="1" spans="1:10" ht="21.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="3:3" ht="18.85" customHeight="1">
+    <row r="2" spans="1:10" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
         <v>3</v>
@@ -2443,7 +1653,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
         <v>7</v>
@@ -2463,7 +1673,7 @@
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
       <c r="B6" s="6" t="s">
         <v>11</v>
@@ -2481,7 +1691,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="6"/>
       <c r="B7" s="6" t="s">
         <v>14</v>
@@ -2501,7 +1711,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
         <v>18</v>
@@ -2517,7 +1727,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
         <v>20</v>
@@ -2537,7 +1747,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
         <v>24</v>
@@ -2553,7 +1763,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="6" t="s">
         <v>26</v>
@@ -2579,7 +1789,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
       <c r="B12" s="6" t="s">
         <v>33</v>
@@ -2599,7 +1809,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
         <v>37</v>
@@ -2619,7 +1829,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
         <v>41</v>
@@ -2647,7 +1857,7 @@
       </c>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="6"/>
       <c r="B15" s="6" t="s">
         <v>48</v>
@@ -2667,7 +1877,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="6"/>
       <c r="B16" s="6" t="s">
         <v>52</v>
@@ -2689,7 +1899,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="6"/>
       <c r="B17" s="6" t="s">
         <v>56</v>
@@ -2715,7 +1925,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="6"/>
       <c r="B18" s="6" t="s">
         <v>61</v>
@@ -2733,15 +1943,12 @@
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="3:3">
-      <c r="C19"/>
-    </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B21" s="6" t="s">
         <v>65</v>
       </c>
@@ -2756,7 +1963,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B22" s="6" t="s">
         <v>7</v>
       </c>
@@ -2775,7 +1982,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B23" s="6" t="s">
         <v>11</v>
       </c>
@@ -2798,7 +2005,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B24" s="6" t="s">
         <v>14</v>
       </c>
@@ -2813,7 +2020,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B25" s="6" t="s">
         <v>18</v>
       </c>
@@ -2828,7 +2035,7 @@
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B26" s="6" t="s">
         <v>20</v>
       </c>
@@ -2849,7 +2056,7 @@
       </c>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B27" s="6" t="s">
         <v>24</v>
       </c>
@@ -2868,7 +2075,7 @@
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B28" s="6" t="s">
         <v>26</v>
       </c>
@@ -2889,7 +2096,7 @@
       </c>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="2:20">
+    <row r="29" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B29" s="6" t="s">
         <v>33</v>
       </c>
@@ -2914,12 +2121,12 @@
       <c r="S29" s="6"/>
       <c r="T29" s="6"/>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="6"/>
       <c r="B32" s="6" t="s">
         <v>3</v>
@@ -2935,7 +2142,7 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="6"/>
       <c r="B33" s="6" t="s">
         <v>7</v>
@@ -2959,7 +2166,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="6"/>
       <c r="B34" s="6" t="s">
         <v>11</v>
@@ -2977,7 +2184,7 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="6"/>
       <c r="B35" s="6" t="s">
         <v>14</v>
@@ -2999,7 +2206,7 @@
       </c>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="6"/>
       <c r="B36" s="6" t="s">
         <v>18</v>
@@ -3021,7 +2228,7 @@
       </c>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="6"/>
       <c r="B37" s="6" t="s">
         <v>20</v>
@@ -3043,7 +2250,7 @@
       </c>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="6"/>
       <c r="B38" s="6" t="s">
         <v>24</v>
@@ -3063,7 +2270,7 @@
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="6"/>
       <c r="B39" s="6" t="s">
         <v>26</v>
@@ -3079,7 +2286,7 @@
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="6"/>
       <c r="B40" s="6" t="s">
         <v>33</v>
@@ -3099,7 +2306,7 @@
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="6"/>
       <c r="B41" s="6" t="s">
         <v>37</v>
@@ -3121,7 +2328,7 @@
       </c>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="6"/>
       <c r="B42" s="6" t="s">
         <v>41</v>
@@ -3141,7 +2348,7 @@
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="6"/>
       <c r="B43" s="6" t="s">
         <v>48</v>
@@ -3159,7 +2366,7 @@
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="6"/>
       <c r="B44" s="6" t="s">
         <v>52</v>
@@ -3177,7 +2384,7 @@
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="6"/>
       <c r="B45" s="6" t="s">
         <v>56</v>
@@ -3195,7 +2402,7 @@
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="6"/>
       <c r="B46" s="6" t="s">
         <v>61</v>
@@ -3211,7 +2418,7 @@
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="6"/>
       <c r="B47" s="6" t="s">
         <v>136</v>
@@ -3227,12 +2434,12 @@
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="50" spans="2:8">
+    <row r="50" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B50" s="6" t="s">
         <v>65</v>
       </c>
@@ -3249,7 +2456,7 @@
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B51" s="6" t="s">
         <v>7</v>
       </c>
@@ -3278,7 +2485,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="52" spans="2:8">
+    <row r="52" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B52" s="6" t="s">
         <v>11</v>
       </c>
@@ -3299,7 +2506,7 @@
       </c>
       <c r="H52" s="6"/>
     </row>
-    <row r="53" spans="2:8">
+    <row r="53" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B53" s="6" t="s">
         <v>14</v>
       </c>
@@ -3314,7 +2521,7 @@
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
     </row>
-    <row r="54" spans="2:8">
+    <row r="54" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -3323,12 +2530,12 @@
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="56" spans="2:9">
+    <row r="56" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B56" s="6" t="s">
         <v>159</v>
       </c>
@@ -3352,7 +2559,7 @@
       </c>
       <c r="I56" s="6"/>
     </row>
-    <row r="57" spans="2:9">
+    <row r="57" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B57" s="6" t="s">
         <v>3</v>
       </c>
@@ -3370,7 +2577,7 @@
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
     </row>
-    <row r="58" spans="2:9">
+    <row r="58" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B58" s="6" t="s">
         <v>7</v>
       </c>
@@ -3386,7 +2593,7 @@
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
     </row>
-    <row r="59" spans="2:9">
+    <row r="59" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B59" s="6" t="s">
         <v>11</v>
       </c>
@@ -3406,7 +2613,7 @@
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
     </row>
-    <row r="60" spans="2:9">
+    <row r="60" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B60" s="6" t="s">
         <v>14</v>
       </c>
@@ -3432,7 +2639,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="61" spans="2:9">
+    <row r="61" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B61" s="6" t="s">
         <v>18</v>
       </c>
@@ -3448,7 +2655,7 @@
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
     </row>
-    <row r="62" spans="2:9">
+    <row r="62" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -3458,7 +2665,7 @@
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
     </row>
-    <row r="63" spans="2:9">
+    <row r="63" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
@@ -3468,12 +2675,12 @@
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="66" spans="2:8">
+    <row r="66" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B66" s="6" t="s">
         <v>3</v>
       </c>
@@ -3494,7 +2701,7 @@
       </c>
       <c r="H66" s="6"/>
     </row>
-    <row r="67" spans="2:8">
+    <row r="67" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B67" s="6" t="s">
         <v>7</v>
       </c>
@@ -3513,7 +2720,7 @@
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
     </row>
-    <row r="68" spans="2:8">
+    <row r="68" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B68" s="6" t="s">
         <v>11</v>
       </c>
@@ -3530,7 +2737,7 @@
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
     </row>
-    <row r="69" spans="2:8">
+    <row r="69" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B69" s="6" t="s">
         <v>14</v>
       </c>
@@ -3545,7 +2752,7 @@
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
     </row>
-    <row r="70" spans="2:8">
+    <row r="70" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B70" s="6" t="s">
         <v>18</v>
       </c>
@@ -3562,7 +2769,7 @@
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
     </row>
-    <row r="71" spans="2:8">
+    <row r="71" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B71" s="6" t="s">
         <v>20</v>
       </c>
@@ -3583,7 +2790,7 @@
       </c>
       <c r="H71" s="6"/>
     </row>
-    <row r="72" spans="2:8">
+    <row r="72" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B72" s="6" t="s">
         <v>24</v>
       </c>
@@ -3604,7 +2811,7 @@
       </c>
       <c r="H72" s="6"/>
     </row>
-    <row r="73" spans="2:8">
+    <row r="73" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B73" s="6" t="s">
         <v>26</v>
       </c>
@@ -3621,7 +2828,7 @@
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
     </row>
-    <row r="74" spans="2:8">
+    <row r="74" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B74" s="6" t="s">
         <v>33</v>
       </c>
@@ -3638,7 +2845,7 @@
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
     </row>
-    <row r="75" spans="2:8">
+    <row r="75" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B75" s="6" t="s">
         <v>37</v>
       </c>
@@ -3661,7 +2868,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="76" spans="2:9">
+    <row r="76" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B76" s="6" t="s">
         <v>41</v>
       </c>
@@ -3687,7 +2894,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="77" spans="2:8">
+    <row r="77" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B77" s="6" t="s">
         <v>48</v>
       </c>
@@ -3702,7 +2909,7 @@
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
     </row>
-    <row r="78" spans="2:8">
+    <row r="78" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B78" s="6" t="s">
         <v>52</v>
       </c>
@@ -3717,7 +2924,7 @@
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
     </row>
-    <row r="79" spans="2:8">
+    <row r="79" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B79" s="6" t="s">
         <v>56</v>
       </c>
@@ -3734,7 +2941,7 @@
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
     </row>
-    <row r="80" spans="2:8">
+    <row r="80" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
@@ -3743,12 +2950,12 @@
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="82" spans="2:16">
+    <row r="82" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B82" s="6" t="s">
         <v>3</v>
       </c>
@@ -3781,7 +2988,7 @@
       <c r="O82" s="6"/>
       <c r="P82" s="6"/>
     </row>
-    <row r="83" spans="2:16">
+    <row r="83" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B83" s="6" t="s">
         <v>7</v>
       </c>
@@ -3820,7 +3027,7 @@
       <c r="O83" s="6"/>
       <c r="P83" s="6"/>
     </row>
-    <row r="84" spans="2:16">
+    <row r="84" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B84" s="6" t="s">
         <v>11</v>
       </c>
@@ -3830,15 +3037,15 @@
       </c>
       <c r="D84" s="6" t="str">
         <f>J83</f>
-        <v>Find Minimum in Rotated Sorted Array </v>
+        <v xml:space="preserve">Find Minimum in Rotated Sorted Array </v>
       </c>
       <c r="E84" s="6" t="str">
         <f>K83</f>
-        <v>Search a 2d Matrix </v>
+        <v xml:space="preserve">Search a 2d Matrix </v>
       </c>
       <c r="F84" s="6" t="str">
         <f>H83</f>
-        <v>Find Peak Element </v>
+        <v xml:space="preserve">Find Peak Element </v>
       </c>
       <c r="G84" s="6" t="s">
         <v>247</v>
@@ -3853,7 +3060,7 @@
       <c r="O84" s="6"/>
       <c r="P84" s="6"/>
     </row>
-    <row r="85" spans="2:16">
+    <row r="85" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B85" s="6" t="s">
         <v>14</v>
       </c>
@@ -3880,7 +3087,7 @@
       <c r="O85" s="6"/>
       <c r="P85" s="6"/>
     </row>
-    <row r="86" spans="2:16">
+    <row r="86" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B86" s="6" t="s">
         <v>18</v>
       </c>
@@ -3901,7 +3108,7 @@
       <c r="O86" s="6"/>
       <c r="P86" s="6"/>
     </row>
-    <row r="87" spans="2:16">
+    <row r="87" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
@@ -3918,24 +3125,25 @@
       <c r="O87" s="6"/>
       <c r="P87" s="6"/>
     </row>
+    <row r="88" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B88" s="6"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>65</v>
+      </c>
+      <c r="C91" s="37" t="s">
+        <v>253</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1658301525" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
-      </ext>
-    </extLst>
-  </printOptions>
-  <pageMargins left="0.787500" right="0.787500" top="0.787500" bottom="0.787500" header="0.393750" footer="0.393750"/>
-  <pageSetup paperSize="1" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
-  <headerFooter>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1658301525" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1658301525" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-      </ext>
-    </extLst>
-  </headerFooter>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0.39374999999999999" footer="0.39374999999999999"/>
+  <pageSetup fitToWidth="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:sheetPrefs xmlns:pm="smNativeData" day="1658301525" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
